--- a/output/fit_clients/fit_round_70.xlsx
+++ b/output/fit_clients/fit_round_70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8425008642.729491</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003666003715051902</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.944755759012435</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9510350060655395</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.944755759012435</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4759053057.146186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005517958262129988</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.383984814568992</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8927636396265455</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.383984814568992</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6439181087.56741</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003888715322382884</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.127420968480941</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9665554121357499</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.127420968480941</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4626483189.002382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004857034653507353</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.594945394139</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8421573465473544</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.594945394139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7923176522.431439</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002799469575044528</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.380993801546055</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.873043795721925</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.380993801546055</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6908816381.920085</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001046477996188612</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.08557432101986663</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.443173027616824</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.2846237653464307</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.443173027616824</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5955088758.138182</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.00269561768378646</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.431400685793528</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9705500494922795</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.431400685793528</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6917562400.256406</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003937927273026412</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.038298740062952</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9110775988216108</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.038298740062952</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3680691567.664219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004189970849090751</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.593040710434309</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9455426407077815</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.593040710434309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4279840690.551305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001504367277016762</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7168053436843994</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.419317770930574</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.9223334127521911</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.419317770930574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8817381358.805906</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001965192159383403</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.002268343746393</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9923834118599484</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.002268343746393</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6599048702.551417</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004194922741358317</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.513049230747136</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.034093353214235</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.513049230747136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8094089194.226398</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003371874167446518</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.900868909770971</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9010591877721236</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.900868909770971</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7596454228.00078</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.00450765182702429</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.430853096196655</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.005640554687973</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.430853096196655</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6559839216.16323</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003826245623980059</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.979004811246512</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9193699426443924</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.979004811246512</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>7060359577.745206</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003136050064989021</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.950477084441544</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.949312169512964</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.950477084441544</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6608770770.254724</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001172382603464358</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.983433554001585</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9371642657407783</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.983433554001585</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3991586544.688331</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.00166349657075689</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.713844689266353</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9196936530659243</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.713844689266353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4151894230.735497</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001314398707525617</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6404968148428728</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.269012977258102</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.912144112761186</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.269012977258102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7969465544.791136</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005221849312984451</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.787966960259306</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8674006001996535</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.787966960259306</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4553662362.853431</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005314898348243858</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.51344124816625</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7873646302869017</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.51344124816625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8949758832.349558</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001894502898270703</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>19</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8655963525233115</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.285567081352527</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.136718789455216</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.285567081352527</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8075800530.404053</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003181957725720423</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.138208055828365</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.005788540031666</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.138208055828365</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5618960246.725582</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003119214796024168</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.230590358720467</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9502522152737146</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.230590358720467</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5829796002.233992</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001374557099302406</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>17</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.305830514333774</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8208606613190812</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.305830514333774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5994088266.12351</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002479775408700433</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.82708342882061</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9474292798362459</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.82708342882061</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7189212794.164619</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005548031040267048</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.936806256327391</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9193699426443924</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.936806256327391</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7598160826.091762</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001079564438087421</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.015228855606328</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9871211368263554</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.015228855606328</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6003191509.576979</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004033652518300231</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.577882315083655</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8979159011294372</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.577882315083655</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6521245742.355685</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003092453159693028</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>17</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.547482782316765</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9557176699769763</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.547482782316765</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3782690565.373249</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001451880345759544</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.994822595261819</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9354160401195635</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.994822595261819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5677183155.574688</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003082415214049672</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.125329214874348</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8546108812742002</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.125329214874348</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6870252219.598314</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004282802242904314</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.95013081762024</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7622038050165993</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.95013081762024</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5442915655.52812</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001635263025159562</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>13</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.796952440399133</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9352569198284871</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.796952440399133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7529258868.622808</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003854839532977754</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.3298866490512961</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.70434212534081</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.7195445666994901</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.70434212534081</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4344586175.771318</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005480702838050625</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.795487595774627</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.017702299086806</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.795487595774627</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3841834503.475777</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.005215212787634075</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.540316808260364</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9027092474431252</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.540316808260364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4915223780.278501</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002659005321270451</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.997528245077728</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8598188415802511</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.997528245077728</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6327445227.546921</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004355326945739976</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>15</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6398099267915153</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.812447395562344</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.056560099400768</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.812447395562344</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6329759629.542393</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.00113515715096576</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.052234781608398</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9360520933732079</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.052234781608398</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6060483201.089324</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003428072551598512</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.605520120535147</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9821337818524074</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.605520120535147</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6165057764.026582</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004498673796621585</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.922678128478503</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9285501974845228</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.922678128478503</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6780548666.761361</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001867139462688461</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>16</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.664850910996416</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9412837986124015</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.664850910996416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5427518773.261981</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001059696004834861</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.085842119655299</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.962698806955866</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.085842119655299</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10609368709.55422</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003614190816870627</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>13</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.828154512750628</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8402112881692383</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.828154512750628</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7733722467.587525</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002073402960339117</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.624893481077168</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8990752498952334</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.624893481077168</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6274291554.361669</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002941229168363436</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.379848400704094</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9620802174510527</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.379848400704094</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5661980171.363634</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004228456648987146</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>18</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.541762944651983</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8606838853294997</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.541762944651983</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5498567218.100081</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003435657844852895</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.112322840295699</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.038687864443128</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.112322840295699</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5423709760.633781</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003563418201053244</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>17</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.541959822249984</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9469580502437916</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.541959822249984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8615565049.345711</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001881846552290439</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.842630243986294</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8680864902889108</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.842630243986294</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5642983952.709189</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003351983966738921</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.9708653677698869</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.925052762564542</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.279091718946673</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.925052762564542</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5813234654.527785</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005476096176423022</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.542158008489908</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8577395207415957</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.542158008489908</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7869078486.317209</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003267647609179079</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.61322437139625</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9107509877737952</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.61322437139625</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5456795923.119497</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00246703794502847</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>12</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.945711540799769</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.284400078384986</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.945711540799769</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6126545357.457946</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003850571249878633</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.665227780454352</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8291577748143729</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.665227780454352</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4447323382.261266</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001959320846657049</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.396585720208211</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8295166903606664</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.396585720208211</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7171413679.073217</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.00284875805814481</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.765358073877889</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9023794442292787</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.765358073877889</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3989846085.084629</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003391337456151963</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.58581101101952</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8403884047230223</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.58581101101952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4605374167.853363</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004645828100345982</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6014743185373173</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.967258008632084</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9664674004771667</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.967258008632084</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4298227211.188869</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003145480687625621</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.289011136713434</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8767855239370234</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.289011136713434</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7782780899.537698</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004776806917431292</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>18</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.371856243080978</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.900894162790972</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.371856243080978</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4161040452.967505</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004142418704830598</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.869460502836807</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8999023949270677</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.869460502836807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5272439754.117845</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003945586661614499</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.072727663182815</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.005344665221597</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.072727663182815</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5792203147.675896</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002840993738955628</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>12</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.946300193413955</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9227627592492097</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.946300193413955</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5408719619.150913</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004340023872871031</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>10</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.766672744143083</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.258330978598218</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.071706263204755</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.258330978598218</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6800131957.405128</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002702644724099173</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.340946094771119</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7208641371942085</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.340946094771119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6134640660.583554</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001221861008057902</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.169706297328286</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.404698101430758</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.4554545137437534</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.404698101430758</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5710206327.340478</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003422292001308712</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.986944928903721</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9064927099443235</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.986944928903721</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4050008686.270247</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003726887618221935</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7789686609800424</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.984352736169804</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9853033315747863</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.984352736169804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8588056757.305427</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002438882246199061</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>16</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.541602804768584</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.041120761234483</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.541602804768584</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6011042133.323391</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001110308682395359</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.012627089535029</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9656312377309041</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.012627089535029</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5007321636.062841</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004647517783422503</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>12</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.9041682741041017</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.84615633141388</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.172588997812161</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.84615633141388</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6135330543.16154</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003464601168664354</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.705246782545657</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8686006796565418</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.705246782545657</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7457841586.364264</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002161150599345811</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.711363987211188</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9322289481235815</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.711363987211188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7224387925.250428</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005938505383111818</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.3326122036923913</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.070857817769629</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.7124299476791148</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.070857817769629</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5064848506.2368</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004213252320820786</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.658799305716186</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9187223400149543</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.658799305716186</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6342990736.992428</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002086913658029899</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>9</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.254978679427985</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-0.3585685828003181</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.254978679427985</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7147543949.214565</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002532987858476856</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2203606996453387</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.771412677417367</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.4632605497925035</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.771412677417367</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6969404491.125474</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004273501868257311</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.44898818086748</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9896805085910477</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.44898818086748</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8780365388.116167</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003872791206346024</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.553299206143262</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8843901163523542</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.553299206143262</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8945990693.63389</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003081725180116656</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.174610127635553</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.810094326697205</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.174610127635553</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6467341663.16913</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00539463604564509</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.447443928687111</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9491555340763166</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.447443928687111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4495707537.290908</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003313419668832766</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>19</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.2108601949366003</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.290864668864564</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.3601491263014844</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.290864668864564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7770475403.741349</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002527045060257598</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.808322436437116</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.983496532266683</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.808322436437116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5051112473.176611</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001567519354163585</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>22</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.182186338328588</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9510351610062917</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.182186338328588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8885873586.971214</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005798635055184562</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.736425046169851</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8549591115626854</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.736425046169851</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5344342959.832953</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004659027148315771</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.015528210419543</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9592920892351247</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.015528210419543</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4984177159.455531</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002692785139765447</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.839448683919056</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9571178785932881</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.839448683919056</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5750291171.166841</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003626543124356317</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.8749713354535332</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.89852205160373</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.056551483970922</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.89852205160373</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4142937079.909036</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003801900763681801</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.983607483956793</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.051502984101256</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.983607483956793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5049327383.630375</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00156904102054388</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.561974080365417</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9177499989623329</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.561974080365417</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5813604166.669145</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001259326917257513</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>11</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.2249870441052054</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.083996908048854</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.5633903464075708</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.083996908048854</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7842066454.328315</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002031855244607892</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.104258326800313</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9392262123161441</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.104258326800313</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8968233512.253328</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002367042091275096</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>20</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.346236473227902</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9081330593261985</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.346236473227902</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7989020559.844217</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003753793100017757</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>13</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.944157070747969</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.897750134210624</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.944157070747969</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6902914751.161896</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00509858616090049</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.619724003123473</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8682579205789113</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.619724003123473</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2590527294.231386</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005310878419624201</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>17</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9459541117715072</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.522819856274233</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.227919274460286</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.522819856274233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4340858951.363897</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002724042224388184</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.734839015725471</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.827720734327792</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.734839015725471</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6792419517.614375</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001672450019449835</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5639885330190277</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.829383304154388</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.885399093826576</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.829383304154388</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_70.xlsx
+++ b/output/fit_clients/fit_round_70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8425008642.729491</v>
+        <v>2115935538.970227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003666003715051902</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
+        <v>0.08381034231488949</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03949338169666227</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1057967780.597757</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4759053057.146186</v>
+        <v>2011218461.58478</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005517958262129988</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+        <v>0.1479791337294925</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04791834392176224</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1005609272.488563</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>529</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3586302875.676814</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1660903572550271</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03625827841145033</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>534</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6439181087.56741</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003888715322382884</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1793151422.619705</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4626483189.002382</v>
+        <v>2755385486.349593</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004857034653507353</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1008501332341873</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03910703805170952</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1377692829.132076</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7923176522.431439</v>
+        <v>2005729398.435557</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002799469575044528</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.1390216919588596</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03558682370144975</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1002864728.102624</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6908816381.920085</v>
+        <v>2361254033.158496</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001046477996188612</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.07888092148016555</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04455026095958955</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1180627042.848588</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5955088758.138182</v>
+        <v>3082757746.726503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00269561768378646</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1809482398460983</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03180169385454139</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1541378939.237909</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6917562400.256406</v>
+        <v>1756119291.758186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003937927273026412</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>22</v>
+        <v>0.1299698965850894</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0275643974063158</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>878059706.2433256</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3680691567.664219</v>
+        <v>5562674295.836864</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004189970849090751</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1970017165657924</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03761713015909026</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2781337290.692342</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4279840690.551305</v>
+        <v>4059378836.344357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001504367277016762</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1907326984293594</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03463990375535361</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2029689434.91624</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8817381358.805906</v>
+        <v>2746340809.767993</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001965192159383403</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>20</v>
+        <v>0.1916442009996067</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04453962819463501</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1373170399.57986</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6599048702.551417</v>
+        <v>5296275037.806004</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004194922741358317</v>
-      </c>
-      <c r="G13" t="b">
+        <v>0.09382367244592137</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02521808256555574</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>14</v>
+      <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2648137507.896796</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8094089194.226398</v>
+        <v>2555959870.421057</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003371874167446518</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16</v>
+        <v>0.1148896837052532</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03174908584769425</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1277980001.716394</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7596454228.00078</v>
+        <v>1677300031.871161</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00450765182702429</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>20</v>
+        <v>0.08115240609981758</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0449683848381492</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>838650141.5257602</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6559839216.16323</v>
+        <v>2349452563.080446</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003826245623980059</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>22</v>
+        <v>0.07971110933514976</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04475327496850819</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1174726325.703151</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>7060359577.745206</v>
+        <v>5171509982.101494</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003136050064989021</v>
-      </c>
-      <c r="G17" t="b">
+        <v>0.1146842721296244</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03303710722800115</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>15</v>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2585754967.636869</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6608770770.254724</v>
+        <v>3994955557.659346</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001172382603464358</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>18</v>
+        <v>0.1633939907532886</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02537820486379403</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1997477736.931853</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3991586544.688331</v>
+        <v>832783233.8749566</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00166349657075689</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1297670329187234</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01712522350615799</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>416391605.4215214</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4151894230.735497</v>
+        <v>2068116980.798325</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001314398707525617</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1052623380896052</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02378154993804529</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1034058509.378165</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7969465544.791136</v>
+        <v>2160743222.365486</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005221849312984451</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13</v>
+        <v>0.09989512805548607</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03791609208481315</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1080371631.683357</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4553662362.853431</v>
+        <v>3288261581.694946</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005314898348243858</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.08949286060906921</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04774669196666034</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1644130835.009566</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8949758832.349558</v>
+        <v>1079846407.458419</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001894502898270703</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>13</v>
+        <v>0.1278742292287444</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05373915308289393</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>539923260.354174</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>476</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2660556009.515863</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1302794644418043</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03046756933174612</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="n">
-        <v>513</v>
-      </c>
-      <c r="E24" t="n">
-        <v>8075800530.404053</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.003181957725720423</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>18</v>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1330278062.738314</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5618960246.725582</v>
+        <v>1001635866.520419</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003119214796024168</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16</v>
+        <v>0.08489969611212589</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02774372381544553</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>500817996.7657582</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5829796002.233992</v>
+        <v>879791907.3637507</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001374557099302406</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09215401303328236</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03342688708585139</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>439895896.2434615</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5994088266.12351</v>
+        <v>3246792743.509439</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002479775408700433</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1282158346574694</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02603140535872702</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1623396419.239642</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7189212794.164619</v>
+        <v>3303010762.489419</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005548031040267048</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18</v>
+        <v>0.1345519691508557</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03929341778271513</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1651505418.66625</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7598160826.091762</v>
+        <v>3946786317.726234</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001079564438087421</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+        <v>0.09474201572844083</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02871483666331996</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>31</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1973393179.383157</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6003191509.576979</v>
+        <v>2269995868.185194</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004033652518300231</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22</v>
+        <v>0.09196421408491502</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03999166636554215</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1134998002.193035</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6521245742.355685</v>
+        <v>1302308078.450133</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003092453159693028</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>14</v>
+        <v>0.09838404966936257</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04242949358591572</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>651153966.51668</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3782690565.373249</v>
+        <v>1290896522.917982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001451880345759544</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.102577232295942</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0379093927039933</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>645448286.3970108</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5677183155.574688</v>
+        <v>1990073418.261281</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003082415214049672</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16</v>
+        <v>0.1412003380451184</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03764006400746237</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>995036790.6594579</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6870252219.598314</v>
+        <v>1183902543.973085</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004282802242904314</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>21</v>
+        <v>0.1143819029554568</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0267921856789024</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>591951279.591848</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5442915655.52812</v>
+        <v>1261288603.793335</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001635263025159562</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>18</v>
+        <v>0.1077173343085737</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0334949575542779</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>630644263.0693773</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7529258868.622808</v>
+        <v>2496707368.422525</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003854839532977754</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>20</v>
+        <v>0.1440097627224825</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02692170228106984</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1248353706.353244</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4344586175.771318</v>
+        <v>1811485177.629561</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005480702838050625</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>18</v>
+        <v>0.0938147651423612</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03448909575270261</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>905742590.0689005</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3841834503.475777</v>
+        <v>1382830435.20068</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005215212787634075</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.100326629327361</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0277746050333519</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>691415283.2991005</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4915223780.278501</v>
+        <v>1555172921.326549</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002659005321270451</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
+        <v>0.1338023575149165</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02492954560639655</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>777586522.6285732</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6327445227.546921</v>
+        <v>1479981024.210054</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004355326945739976</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.122989704241051</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03935888229285699</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>739990483.2117649</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6329759629.542393</v>
+        <v>2024338061.796077</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00113515715096576</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>20</v>
+        <v>0.1398010928929102</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04520817714709254</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>17</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1012169102.612215</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6060483201.089324</v>
+        <v>3543721242.046273</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003428072551598512</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>18</v>
+        <v>0.1137045157268221</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03550649465493298</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1771860618.808873</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6165057764.026582</v>
+        <v>2242437295.312018</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004498673796621585</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>16</v>
+        <v>0.1699321253961572</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02176450933305518</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1121218722.11862</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6780548666.761361</v>
+        <v>2351560441.772012</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001867139462688461</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>18</v>
+        <v>0.1014419291058339</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02474465048549209</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1175780397.261269</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5427518773.261981</v>
+        <v>2240688104.113637</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001059696004834861</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1633329968792375</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03867261211510943</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1120344067.060138</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10609368709.55422</v>
+        <v>4533448586.20697</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003614190816870627</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>11</v>
+        <v>0.1301775769612449</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05124247978882011</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2266724293.081059</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7733722467.587525</v>
+        <v>3302600793.297571</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002073402960339117</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1855467883349993</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03893428986673404</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>19</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1651300356.145835</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6274291554.361669</v>
+        <v>3946067885.580689</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002941229168363436</v>
-      </c>
-      <c r="G48" t="b">
+        <v>0.109566551490992</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03225729731481678</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="H48" t="n">
-        <v>12</v>
+      <c r="I48" t="n">
+        <v>23</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1973033980.225245</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5661980171.363634</v>
+        <v>1427712822.508038</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004228456648987146</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1623795557209263</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04176769597721196</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>713856454.4160753</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5498567218.100081</v>
+        <v>4132819919.537859</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003435657844852895</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20</v>
+        <v>0.1504055030018381</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04943858939169499</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2066409938.894588</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5423709760.633781</v>
+        <v>1389137028.74369</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003563418201053244</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1837640603367094</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04061784974456954</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>694568535.1709512</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8615565049.345711</v>
+        <v>4106705476.360331</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001881846552290439</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>17</v>
+        <v>0.09627608323603862</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05139067245755711</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>29</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2053352788.283307</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5642983952.709189</v>
+        <v>3404797836.692194</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003351983966738921</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>13</v>
+        <v>0.1900526021694829</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03218146855712503</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1702398922.726407</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5813234654.527785</v>
+        <v>4694101897.389088</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005476096176423022</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18</v>
+        <v>0.1333447083324839</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04191623341982157</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>23</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2347051067.126568</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7869078486.317209</v>
+        <v>4044670518.029529</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003267647609179079</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>22</v>
+        <v>0.2021263533368768</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02571838789595822</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2022335235.785407</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5456795923.119497</v>
+        <v>1735845100.184955</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00246703794502847</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.1134188721227219</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04186607832128419</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>867922557.2842863</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6126545357.457946</v>
+        <v>3187180824.760443</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003850571249878633</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1690771107699282</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02141139926941261</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1593590432.405778</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4447323382.261266</v>
+        <v>1821953637.357729</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001959320846657049</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.2003685184137367</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03898017397280246</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>910976820.3406419</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7171413679.073217</v>
+        <v>4841154314.452485</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00284875805814481</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1190042655777998</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0363196861760407</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2420577092.511262</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3989846085.084629</v>
+        <v>2949464485.154265</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003391337456151963</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.124522905240416</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02467178788826471</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1474732307.527064</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4605374167.853363</v>
+        <v>2763355538.765517</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004645828100345982</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>16</v>
+        <v>0.1667910111872037</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03062921715487214</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>25</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1381677772.063637</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4298227211.188869</v>
+        <v>1313523934.504316</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003145480687625621</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>12</v>
+        <v>0.1226868152854278</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03800063005834686</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>656761922.2486591</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7782780899.537698</v>
+        <v>4156165939.856568</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004776806917431292</v>
-      </c>
-      <c r="G63" t="b">
+        <v>0.09258330238411512</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03775624298263818</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="H63" t="n">
-        <v>16</v>
+      <c r="I63" t="n">
+        <v>20</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2078083025.241706</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4161040452.967505</v>
+        <v>4008983753.604869</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004142418704830598</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1170623012708864</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03248189845368774</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>22</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2004491913.206255</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5272439754.117845</v>
+        <v>4293809812.699277</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003945586661614499</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>18</v>
+        <v>0.1344788238820417</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02234467219222184</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2146904907.280296</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5792203147.675896</v>
+        <v>5286547095.410647</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002840993738955628</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>14</v>
+        <v>0.1423895102061013</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04939989668874965</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2643273590.104465</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5408719619.150913</v>
+        <v>3114753714.974724</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004340023872871031</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.06549206998748966</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03933966935200705</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>22</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1557376865.912836</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6800131957.405128</v>
+        <v>4913539207.688313</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002702644724099173</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>14</v>
+        <v>0.1531449695304108</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03493118210584793</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>22</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2456769654.894054</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6134640660.583554</v>
+        <v>1921692594.664936</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001221861008057902</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>16</v>
+        <v>0.1180139489213106</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04022066381421725</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>960846292.0645094</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5710206327.340478</v>
+        <v>3186446840.342813</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003422292001308712</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.07456148455100735</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04970941737286166</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1593223409.238095</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4050008686.270247</v>
+        <v>5426367402.417826</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003726887618221935</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1557949424101433</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0248670240023308</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2713183838.6214</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8588056757.305427</v>
+        <v>1464256091.339758</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002438882246199061</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>14</v>
+        <v>0.1052860664230286</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04798067298760481</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>732128078.3346465</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6011042133.323391</v>
+        <v>2592960039.260186</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001110308682395359</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>16</v>
+        <v>0.1045831455317885</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04883650744190961</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1296480052.764918</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5007321636.062841</v>
+        <v>3972311525.108448</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004647517783422503</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.1253796964931355</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03170543845881521</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>24</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1986155743.814533</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6135330543.16154</v>
+        <v>1762196165.522057</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003464601168664354</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>13</v>
+        <v>0.1516575458442972</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02670656033612959</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>881098069.1863272</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7457841586.364264</v>
+        <v>4151427235.087762</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002161150599345811</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>14</v>
+        <v>0.1169600519211796</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02928966042440104</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2075713608.508914</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7224387925.250428</v>
+        <v>1802996818.214366</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005938505383111818</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>24</v>
+        <v>0.1660320539239455</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02157567380083816</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>901498441.4636096</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5064848506.2368</v>
+        <v>4148023900.677754</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004213252320820786</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.1322873288398787</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04410733678552878</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>26</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2074011905.356234</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6342990736.992428</v>
+        <v>1774269267.613082</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002086913658029899</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1495978686415329</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02645545978631277</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>887134715.8783382</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7147543949.214565</v>
+        <v>3562569339.256215</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002532987858476856</v>
-      </c>
-      <c r="G80" t="b">
+        <v>0.07498772414673627</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02643479377470528</v>
+      </c>
+      <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="H80" t="n">
-        <v>23</v>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1781284647.252694</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6969404491.125474</v>
+        <v>4418131106.925685</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004273501868257311</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1172918665262716</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03144748101121704</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2209065532.060814</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8780365388.116167</v>
+        <v>4025382496.484327</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003872791206346024</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.1809835093314337</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02800306998247759</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2012691286.501528</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8945990693.63389</v>
+        <v>2023371832.175204</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003081725180116656</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>20</v>
+        <v>0.1359905371815572</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04531198105786226</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1011685904.240333</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6467341663.16913</v>
+        <v>2301674086.814586</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00539463604564509</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>19</v>
+        <v>0.09055019226505273</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04825757562381412</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1150837004.120307</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4495707537.290908</v>
+        <v>2963658038.784184</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003313419668832766</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1363188625678362</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04018745355935326</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1481829075.439129</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7770475403.741349</v>
+        <v>1930515961.246454</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002527045060257598</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>18</v>
+        <v>0.1670123439691638</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02546232882958843</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>965257998.4838382</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5051112473.176611</v>
+        <v>1045834109.341604</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001567519354163585</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1343697528628252</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02752397136830501</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>522917070.6161292</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8885873586.971214</v>
+        <v>2633145613.541911</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005798635055184562</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.140406690977021</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03195687462000833</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1316572800.872843</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5344342959.832953</v>
+        <v>3257317694.931014</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004659027148315771</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>15</v>
+        <v>0.142459753921426</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02737969800621159</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>23</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1628658866.604922</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4984177159.455531</v>
+        <v>2017848135.207074</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002692785139765447</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>13</v>
+        <v>0.09884373821960003</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05012419825855169</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1008924141.046368</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5750291171.166841</v>
+        <v>1611896871.706909</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003626543124356317</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>21</v>
+        <v>0.128546574875891</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.06015242074029322</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>805948459.7411692</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4142937079.909036</v>
+        <v>2097250140.597502</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003801900763681801</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1046352871652774</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03770832388805016</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>15</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1048625023.715303</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5049327383.630375</v>
+        <v>4706634460.589034</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00156904102054388</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>24</v>
+        <v>0.1248332962270174</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05287147000425945</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2353317185.148232</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5813604166.669145</v>
+        <v>1801396957.068825</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001259326917257513</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>22</v>
+        <v>0.1191867976694472</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0348969119548115</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>900698450.9632796</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7842066454.328315</v>
+        <v>3137127018.105838</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002031855244607892</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>18</v>
+        <v>0.1035990088298676</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03210189479869693</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1568563498.739224</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8968233512.253328</v>
+        <v>1807411534.224101</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002367042091275096</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>19</v>
+        <v>0.1004042729774454</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03174541190459236</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>903705774.5511837</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7989020559.844217</v>
+        <v>4730593043.031722</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003753793100017757</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>18</v>
+        <v>0.1748270711275244</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02104119508627164</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>22</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2365296636.556357</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6902914751.161896</v>
+        <v>3229402162.838638</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00509858616090049</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>26</v>
+        <v>0.124241118822483</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02441976652676863</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1614701081.569435</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2590527294.231386</v>
+        <v>2580370734.647886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005310878419624201</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.140494084782488</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02445774522112294</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1290185322.750085</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4340858951.363897</v>
+        <v>4797588368.365084</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002724042224388184</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>7</v>
+        <v>0.1090028470505276</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02377870443574535</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2398794318.39669</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6792419517.614375</v>
+        <v>2998412867.165677</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001672450019449835</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>23</v>
+        <v>0.2034196936172644</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05061372560110734</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>30</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1499206522.325808</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_70.xlsx
+++ b/output/fit_clients/fit_round_70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2115935538.970227</v>
+        <v>2418470031.554517</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08381034231488949</v>
+        <v>0.07274284944902461</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03949338169666227</v>
+        <v>0.03948602478234085</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1057967780.597757</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2011218461.58478</v>
+        <v>2554166589.963556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1479791337294925</v>
+        <v>0.1133896644408222</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04791834392176224</v>
+        <v>0.03476424048198878</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1005609272.488563</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3586302875.676814</v>
+        <v>4910221434.538749</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1660903572550271</v>
+        <v>0.1327137829727247</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03625827841145033</v>
+        <v>0.03569988333282308</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1793151422.619705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2755385486.349593</v>
+        <v>4083786218.947341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1008501332341873</v>
+        <v>0.07417678513392963</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03910703805170952</v>
+        <v>0.03788653858114555</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1377692829.132076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2005729398.435557</v>
+        <v>1797038178.412683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1390216919588596</v>
+        <v>0.1274951340770952</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03558682370144975</v>
+        <v>0.05479895599612755</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1002864728.102624</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2361254033.158496</v>
+        <v>2675087086.630653</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07888092148016555</v>
+        <v>0.08024872169756332</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04455026095958955</v>
+        <v>0.04829125802003646</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>22</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1180627042.848588</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3082757746.726503</v>
+        <v>3627026108.047442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1809482398460983</v>
+        <v>0.1403873853352454</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03180169385454139</v>
+        <v>0.024002640889422</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>22</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1541378939.237909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1756119291.758186</v>
+        <v>2026382221.691947</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1299698965850894</v>
+        <v>0.1571218669975931</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0275643974063158</v>
+        <v>0.03627483406026268</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>878059706.2433256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5562674295.836864</v>
+        <v>5044978302.175276</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1970017165657924</v>
+        <v>0.1533139514262493</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03761713015909026</v>
+        <v>0.0331719421155982</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2781337290.692342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4059378836.344357</v>
+        <v>2697355668.997415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1907326984293594</v>
+        <v>0.1260380748642446</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03463990375535361</v>
+        <v>0.04268044630357326</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>29</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2029689434.91624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2746340809.767993</v>
+        <v>2770248990.257258</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1916442009996067</v>
+        <v>0.1644917310102838</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04453962819463501</v>
+        <v>0.03365277603483979</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>24</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1373170399.57986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5296275037.806004</v>
+        <v>4027404211.382944</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09382367244592137</v>
+        <v>0.09197023394308781</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02521808256555574</v>
+        <v>0.02870232433784248</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>23</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2648137507.896796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2555959870.421057</v>
+        <v>3571223174.147475</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1148896837052532</v>
+        <v>0.1496271254776845</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03174908584769425</v>
+        <v>0.04340602978928502</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1277980001.716394</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1677300031.871161</v>
+        <v>1478746180.362363</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08115240609981758</v>
+        <v>0.06971331633324544</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0449683848381492</v>
+        <v>0.04884569780875292</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>838650141.5257602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2349452563.080446</v>
+        <v>2108992139.043917</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07971110933514976</v>
+        <v>0.09922313811815758</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04475327496850819</v>
+        <v>0.04819034285423032</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1174726325.703151</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5171509982.101494</v>
+        <v>3381412338.242431</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1146842721296244</v>
+        <v>0.1174355167690657</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03303710722800115</v>
+        <v>0.04145362992940284</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2585754967.636869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3994955557.659346</v>
+        <v>3710895849.126026</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1633939907532886</v>
+        <v>0.182548387308511</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02537820486379403</v>
+        <v>0.02946922021130811</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1997477736.931853</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>832783233.8749566</v>
+        <v>1179421359.194139</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1297670329187234</v>
+        <v>0.1755076683180128</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01712522350615799</v>
+        <v>0.02160519036845168</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>416391605.4215214</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2068116980.798325</v>
+        <v>1781958271.322896</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1052623380896052</v>
+        <v>0.1447310386985212</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02378154993804529</v>
+        <v>0.02447815323234486</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1034058509.378165</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2160743222.365486</v>
+        <v>2374324116.784986</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09989512805548607</v>
+        <v>0.08711874573490237</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03791609208481315</v>
+        <v>0.02836561371063879</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1080371631.683357</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3288261581.694946</v>
+        <v>2584883185.289177</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08949286060906921</v>
+        <v>0.0907679715475556</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04774669196666034</v>
+        <v>0.04524718342243125</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1644130835.009566</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1079846407.458419</v>
+        <v>1360901793.520146</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1278742292287444</v>
+        <v>0.1298594613971978</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05373915308289393</v>
+        <v>0.05265053398156224</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>539923260.354174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2660556009.515863</v>
+        <v>4067752543.129853</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1302794644418043</v>
+        <v>0.1151939946628432</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03046756933174612</v>
+        <v>0.03451887827522097</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1330278062.738314</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1001635866.520419</v>
+        <v>894013589.7259901</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08489969611212589</v>
+        <v>0.09510085972388056</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02774372381544553</v>
+        <v>0.02455294027506818</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>500817996.7657582</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>879791907.3637507</v>
+        <v>1259785582.985991</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09215401303328236</v>
+        <v>0.07540448211846636</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03342688708585139</v>
+        <v>0.03820113469962834</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>439895896.2434615</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3246792743.509439</v>
+        <v>3387591025.323475</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1282158346574694</v>
+        <v>0.1140792663912376</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02603140535872702</v>
+        <v>0.02489222048907534</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1623396419.239642</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3303010762.489419</v>
+        <v>2935720531.593068</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1345519691508557</v>
+        <v>0.1510541391494553</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03929341778271513</v>
+        <v>0.04744339090430129</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>23</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1651505418.66625</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3946786317.726234</v>
+        <v>4542408364.683735</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09474201572844083</v>
+        <v>0.1262134619409787</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02871483666331996</v>
+        <v>0.03217533791213352</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>31</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1973393179.383157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2269995868.185194</v>
+        <v>2104205386.198922</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09196421408491502</v>
+        <v>0.1008475037548954</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03999166636554215</v>
+        <v>0.02625809903049829</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1134998002.193035</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1302308078.450133</v>
+        <v>1095347029.45655</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09838404966936257</v>
+        <v>0.08432438360448299</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04242949358591572</v>
+        <v>0.03933016404892789</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>651153966.51668</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1290896522.917982</v>
+        <v>1461153678.498518</v>
       </c>
       <c r="F32" t="n">
-        <v>0.102577232295942</v>
+        <v>0.1200475262851251</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0379093927039933</v>
+        <v>0.03274796420206325</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>645448286.3970108</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1990073418.261281</v>
+        <v>2661533278.443891</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1412003380451184</v>
+        <v>0.1340453150512676</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03764006400746237</v>
+        <v>0.06121383729849825</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>20</v>
-      </c>
-      <c r="J33" t="n">
-        <v>995036790.6594579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1183902543.973085</v>
+        <v>1269686406.830944</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1143819029554568</v>
+        <v>0.09622187697733195</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0267921856789024</v>
+        <v>0.01918846881634196</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>591951279.591848</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1261288603.793335</v>
+        <v>1183779931.454057</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1077173343085737</v>
+        <v>0.1091484365199132</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0334949575542779</v>
+        <v>0.03228490715036843</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>630644263.0693773</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2496707368.422525</v>
+        <v>3191505623.623384</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1440097627224825</v>
+        <v>0.1250011450015642</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02692170228106984</v>
+        <v>0.02688048226085849</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1248353706.353244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1811485177.629561</v>
+        <v>1841590452.050086</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0938147651423612</v>
+        <v>0.07752383077318342</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03448909575270261</v>
+        <v>0.03324796434237193</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>905742590.0689005</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1382830435.20068</v>
+        <v>1767541552.610547</v>
       </c>
       <c r="F38" t="n">
-        <v>0.100326629327361</v>
+        <v>0.1005501108573436</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0277746050333519</v>
+        <v>0.03740027305658312</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>691415283.2991005</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1555172921.326549</v>
+        <v>1381153639.223576</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1338023575149165</v>
+        <v>0.1873121365362651</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02492954560639655</v>
+        <v>0.02679148300601177</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>777586522.6285732</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1479981024.210054</v>
+        <v>1327281844.451571</v>
       </c>
       <c r="F40" t="n">
-        <v>0.122989704241051</v>
+        <v>0.1599933784668912</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03935888229285699</v>
+        <v>0.04920542053734842</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>739990483.2117649</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2024338061.796077</v>
+        <v>2400757326.879608</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1398010928929102</v>
+        <v>0.1187542724679608</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04520817714709254</v>
+        <v>0.03941211502153381</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>17</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1012169102.612215</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3543721242.046273</v>
+        <v>4099163377.175808</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1137045157268221</v>
+        <v>0.1006196709984659</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03550649465493298</v>
+        <v>0.04472916924868958</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1771860618.808873</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2242437295.312018</v>
+        <v>2980861971.548039</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1699321253961572</v>
+        <v>0.1391872614424405</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02176450933305518</v>
+        <v>0.01977055740951765</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>25</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1121218722.11862</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2351560441.772012</v>
+        <v>1926944447.016662</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1014419291058339</v>
+        <v>0.08323021756487745</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02474465048549209</v>
+        <v>0.02365328000451834</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1175780397.261269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2240688104.113637</v>
+        <v>1567866204.568396</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1633329968792375</v>
+        <v>0.1189930862732963</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03867261211510943</v>
+        <v>0.04719275832961919</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1120344067.060138</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4533448586.20697</v>
+        <v>4354157739.730542</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1301775769612449</v>
+        <v>0.1298555058614822</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05124247978882011</v>
+        <v>0.04617914864638498</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>25</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2266724293.081059</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3302600793.297571</v>
+        <v>3888888339.049433</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1855467883349993</v>
+        <v>0.1330171302963432</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03893428986673404</v>
+        <v>0.04520597151539537</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1651300356.145835</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3946067885.580689</v>
+        <v>3753698216.629604</v>
       </c>
       <c r="F48" t="n">
-        <v>0.109566551490992</v>
+        <v>0.09963389876277219</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03225729731481678</v>
+        <v>0.02396770812366853</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>23</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1973033980.225245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1427712822.508038</v>
+        <v>1926320237.48552</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1623795557209263</v>
+        <v>0.1619004119024549</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04176769597721196</v>
+        <v>0.02861671186171837</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>713856454.4160753</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4132819919.537859</v>
+        <v>3964128175.513617</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1504055030018381</v>
+        <v>0.1188372201921105</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04943858939169499</v>
+        <v>0.04762382677281899</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>24</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2066409938.894588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1389137028.74369</v>
+        <v>1208891612.469882</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1837640603367094</v>
+        <v>0.1877371016704922</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04061784974456954</v>
+        <v>0.0349323445101003</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>694568535.1709512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4106705476.360331</v>
+        <v>4979511130.089106</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09627608323603862</v>
+        <v>0.09886246881395616</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05139067245755711</v>
+        <v>0.04333471439341325</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>29</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2053352788.283307</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3404797836.692194</v>
+        <v>3221955248.677681</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1900526021694829</v>
+        <v>0.1372771319699124</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03218146855712503</v>
+        <v>0.02468845668649748</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1702398922.726407</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4694101897.389088</v>
+        <v>3857294152.48687</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1333447083324839</v>
+        <v>0.117399367175464</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04191623341982157</v>
+        <v>0.03287019221724863</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>23</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2347051067.126568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4044670518.029529</v>
+        <v>4219585558.023179</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2021263533368768</v>
+        <v>0.2203791834905794</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02571838789595822</v>
+        <v>0.0242205340117761</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2022335235.785407</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1735845100.184955</v>
+        <v>1164668159.925165</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1134188721227219</v>
+        <v>0.1185401153100237</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04186607832128419</v>
+        <v>0.04947093548221744</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>867922557.2842863</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3187180824.760443</v>
+        <v>4099825510.237453</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1690771107699282</v>
+        <v>0.1822262003323528</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02141139926941261</v>
+        <v>0.02676984776673006</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>22</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1593590432.405778</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1821953637.357729</v>
+        <v>1485104185.958348</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2003685184137367</v>
+        <v>0.1748827226724153</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03898017397280246</v>
+        <v>0.03688965743160956</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>910976820.3406419</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4841154314.452485</v>
+        <v>3834349936.413664</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1190042655777998</v>
+        <v>0.1202976329981699</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0363196861760407</v>
+        <v>0.04421274476340611</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2420577092.511262</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2949464485.154265</v>
+        <v>2910614772.66018</v>
       </c>
       <c r="F60" t="n">
-        <v>0.124522905240416</v>
+        <v>0.1381162715044678</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02467178788826471</v>
+        <v>0.03267142661174274</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>21</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1474732307.527064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2763355538.765517</v>
+        <v>2983851871.016278</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1667910111872037</v>
+        <v>0.1476782572431525</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03062921715487214</v>
+        <v>0.0274013143684514</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>25</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1381677772.063637</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1313523934.504316</v>
+        <v>1705871444.518472</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1226868152854278</v>
+        <v>0.1752808649371073</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03800063005834686</v>
+        <v>0.04655700587944191</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>656761922.2486591</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4156165939.856568</v>
+        <v>4004370648.085252</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09258330238411512</v>
+        <v>0.06981677463721488</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03775624298263818</v>
+        <v>0.04059272932323871</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>20</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2078083025.241706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4008983753.604869</v>
+        <v>4387471042.156924</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1170623012708864</v>
+        <v>0.1516156594100602</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03248189845368774</v>
+        <v>0.02433796704810432</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>22</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2004491913.206255</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4293809812.699277</v>
+        <v>4206662462.751066</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1344788238820417</v>
+        <v>0.1052652619465316</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02234467219222184</v>
+        <v>0.02676480620638241</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2146904907.280296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5286547095.410647</v>
+        <v>5457536273.790527</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1423895102061013</v>
+        <v>0.1248959227182425</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04939989668874965</v>
+        <v>0.04307306436235871</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>20</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2643273590.104465</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3114753714.974724</v>
+        <v>2736416942.575049</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06549206998748966</v>
+        <v>0.1020200223325559</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03933966935200705</v>
+        <v>0.04736011325977202</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>22</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1557376865.912836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4913539207.688313</v>
+        <v>6028239154.976945</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1531449695304108</v>
+        <v>0.1260301164392393</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03493118210584793</v>
+        <v>0.0472101778002678</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>22</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2456769654.894054</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1921692594.664936</v>
+        <v>1621697267.899539</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1180139489213106</v>
+        <v>0.1270075558001713</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04022066381421725</v>
+        <v>0.04008854173492631</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>960846292.0645094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3186446840.342813</v>
+        <v>3345764741.29623</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07456148455100735</v>
+        <v>0.08822364820653275</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04970941737286166</v>
+        <v>0.03163490218710972</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>20</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1593223409.238095</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5426367402.417826</v>
+        <v>3837009986.946353</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1557949424101433</v>
+        <v>0.13852229834151</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0248670240023308</v>
+        <v>0.02769809795547959</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>26</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2713183838.6214</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1464256091.339758</v>
+        <v>1984657307.15608</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1052860664230286</v>
+        <v>0.1053509810866507</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04798067298760481</v>
+        <v>0.05110094296936674</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>732128078.3346465</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2592960039.260186</v>
+        <v>2725922192.168824</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1045831455317885</v>
+        <v>0.104268384168574</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04883650744190961</v>
+        <v>0.04313954401661673</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>27</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1296480052.764918</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3972311525.108448</v>
+        <v>3632809808.921638</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1253796964931355</v>
+        <v>0.1434509951317884</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03170543845881521</v>
+        <v>0.02465013459002539</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>24</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1986155743.814533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1762196165.522057</v>
+        <v>1932336828.439223</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1516575458442972</v>
+        <v>0.1458122972120159</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02670656033612959</v>
+        <v>0.02900658355799622</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>881098069.1863272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4151427235.087762</v>
+        <v>4540455446.005898</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1169600519211796</v>
+        <v>0.1249427823996011</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02928966042440104</v>
+        <v>0.02632324288712333</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2075713608.508914</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1802996818.214366</v>
+        <v>2106315738.915568</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1660320539239455</v>
+        <v>0.1188203563493156</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02157567380083816</v>
+        <v>0.02710337674217107</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>901498441.4636096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4148023900.677754</v>
+        <v>3344826255.816115</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1322873288398787</v>
+        <v>0.1180398395787368</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04410733678552878</v>
+        <v>0.04137802658590693</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>26</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2074011905.356234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1774269267.613082</v>
+        <v>1785437408.847523</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1495978686415329</v>
+        <v>0.1718155866822713</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02645545978631277</v>
+        <v>0.02553780883268304</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>887134715.8783382</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3562569339.256215</v>
+        <v>4719421778.372992</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07498772414673627</v>
+        <v>0.1089636018116349</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02643479377470528</v>
+        <v>0.03637837986036445</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>14</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1781284647.252694</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4418131106.925685</v>
+        <v>4561473512.532747</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1172918665262716</v>
+        <v>0.1066444264365991</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03144748101121704</v>
+        <v>0.02584453373441181</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>15</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2209065532.060814</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4025382496.484327</v>
+        <v>5211096324.823095</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1809835093314337</v>
+        <v>0.1356579160911994</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02800306998247759</v>
+        <v>0.0181213070109753</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2012691286.501528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2023371832.175204</v>
+        <v>1858799374.993485</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1359905371815572</v>
+        <v>0.1003644476858866</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04531198105786226</v>
+        <v>0.03119575325319881</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1011685904.240333</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2301674086.814586</v>
+        <v>1880438974.748161</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09055019226505273</v>
+        <v>0.09223720414889734</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04825757562381412</v>
+        <v>0.04630206536733069</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1150837004.120307</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2963658038.784184</v>
+        <v>3472021005.24698</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1363188625678362</v>
+        <v>0.1750375261143814</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04018745355935326</v>
+        <v>0.05222353788161837</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>27</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1481829075.439129</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1930515961.246454</v>
+        <v>2356801857.375929</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1670123439691638</v>
+        <v>0.122919161492897</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02546232882958843</v>
+        <v>0.01725050334311914</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>965257998.4838382</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1045834109.341604</v>
+        <v>1116299508.848449</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1343697528628252</v>
+        <v>0.1205781308072473</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02752397136830501</v>
+        <v>0.03793986934994339</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>522917070.6161292</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2633145613.541911</v>
+        <v>3173497676.73268</v>
       </c>
       <c r="F88" t="n">
-        <v>0.140406690977021</v>
+        <v>0.1418671772021475</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03195687462000833</v>
+        <v>0.03941151629899594</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>28</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1316572800.872843</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3257317694.931014</v>
+        <v>2509056539.054795</v>
       </c>
       <c r="F89" t="n">
-        <v>0.142459753921426</v>
+        <v>0.1480612219773942</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02737969800621159</v>
+        <v>0.03770346272216223</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>23</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1628658866.604922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2017848135.207074</v>
+        <v>2002764342.876734</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09884373821960003</v>
+        <v>0.1226786468823805</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05012419825855169</v>
+        <v>0.03554445158255459</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1008924141.046368</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1611896871.706909</v>
+        <v>1562998674.267471</v>
       </c>
       <c r="F91" t="n">
-        <v>0.128546574875891</v>
+        <v>0.1284217429471216</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06015242074029322</v>
+        <v>0.04173488292210982</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>805948459.7411692</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2097250140.597502</v>
+        <v>2459325607.880857</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1046352871652774</v>
+        <v>0.07641127709223437</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03770832388805016</v>
+        <v>0.04561505273707916</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1048625023.715303</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4706634460.589034</v>
+        <v>3409565821.918616</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1248332962270174</v>
+        <v>0.1340581259931961</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05287147000425945</v>
+        <v>0.03972347787623449</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>21</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2353317185.148232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1801396957.068825</v>
+        <v>2521192070.875357</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1191867976694472</v>
+        <v>0.141312341201702</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0348969119548115</v>
+        <v>0.02696054119775461</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>900698450.9632796</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3137127018.105838</v>
+        <v>1996287027.535538</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1035990088298676</v>
+        <v>0.08365487520413609</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03210189479869693</v>
+        <v>0.04490949646021025</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>17</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1568563498.739224</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1807411534.224101</v>
+        <v>1981770973.106937</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1004042729774454</v>
+        <v>0.08560902902521907</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03174541190459236</v>
+        <v>0.04640957330162114</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>903705774.5511837</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4730593043.031722</v>
+        <v>5119276514.638713</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1748270711275244</v>
+        <v>0.1752490714284152</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02104119508627164</v>
+        <v>0.01773483784307158</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>22</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2365296636.556357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3229402162.838638</v>
+        <v>3644631863.844076</v>
       </c>
       <c r="F98" t="n">
-        <v>0.124241118822483</v>
+        <v>0.08376669174738845</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02441976652676863</v>
+        <v>0.03168465990000279</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>19</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1614701081.569435</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2580370734.647886</v>
+        <v>2240482397.47427</v>
       </c>
       <c r="F99" t="n">
-        <v>0.140494084782488</v>
+        <v>0.1239173249867729</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02445774522112294</v>
+        <v>0.02859353450786619</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1290185322.750085</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4797588368.365084</v>
+        <v>4133405341.573193</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1090028470505276</v>
+        <v>0.1246080017152818</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02377870443574535</v>
+        <v>0.02552877558764513</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>21</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2398794318.39669</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2998412867.165677</v>
+        <v>3508226946.636349</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2034196936172644</v>
+        <v>0.1559072165264842</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05061372560110734</v>
+        <v>0.03539139499790444</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>30</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1499206522.325808</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_70.xlsx
+++ b/output/fit_clients/fit_round_70.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2418470031.554517</v>
+        <v>2116034247.866054</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07274284944902461</v>
+        <v>0.09687792685966257</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03948602478234085</v>
+        <v>0.04145266063859337</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2554166589.963556</v>
+        <v>2484436149.219905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1133896644408222</v>
+        <v>0.1461798190292288</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03476424048198878</v>
+        <v>0.04570867091781637</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4910221434.538749</v>
+        <v>4457322091.063692</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1327137829727247</v>
+        <v>0.1276059913193132</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03569988333282308</v>
+        <v>0.02608158654104241</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4083786218.947341</v>
+        <v>3522972750.855654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07417678513392963</v>
+        <v>0.1067940171664105</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03788653858114555</v>
+        <v>0.05073030562379302</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1797038178.412683</v>
+        <v>2771210651.956114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1274951340770952</v>
+        <v>0.1299653182929839</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05479895599612755</v>
+        <v>0.04801944063484847</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2675087086.630653</v>
+        <v>2057672267.199939</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08024872169756332</v>
+        <v>0.0863204337398172</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04829125802003646</v>
+        <v>0.04794852363843823</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3627026108.047442</v>
+        <v>2904456297.894362</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1403873853352454</v>
+        <v>0.2177658528875738</v>
       </c>
       <c r="G8" t="n">
-        <v>0.024002640889422</v>
+        <v>0.02728923415519618</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2026382221.691947</v>
+        <v>1832314286.23871</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1571218669975931</v>
+        <v>0.1654968416244219</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03627483406026268</v>
+        <v>0.02283837233153354</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5044978302.175276</v>
+        <v>5003116283.149007</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1533139514262493</v>
+        <v>0.1404290284233115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0331719421155982</v>
+        <v>0.03491163929603795</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2697355668.997415</v>
+        <v>2663857664.193207</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1260380748642446</v>
+        <v>0.1243461827568602</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04268044630357326</v>
+        <v>0.03156596382428297</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2770248990.257258</v>
+        <v>3127737829.954705</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1644917310102838</v>
+        <v>0.1574186572025361</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03365277603483979</v>
+        <v>0.0377340118502198</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4027404211.382944</v>
+        <v>5281948865.071282</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09197023394308781</v>
+        <v>0.07295638263138715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02870232433784248</v>
+        <v>0.02349684044286071</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3571223174.147475</v>
+        <v>2820308684.601986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1496271254776845</v>
+        <v>0.1415471544990596</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04340602978928502</v>
+        <v>0.03514126950722687</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1478746180.362363</v>
+        <v>1547412936.109903</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06971331633324544</v>
+        <v>0.07293321441066251</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04884569780875292</v>
+        <v>0.03045869332042084</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2108992139.043917</v>
+        <v>2343984728.071215</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09922313811815758</v>
+        <v>0.08948670091144748</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04819034285423032</v>
+        <v>0.03451680499841375</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3381412338.242431</v>
+        <v>3800562947.872481</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1174355167690657</v>
+        <v>0.129705837504866</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04145362992940284</v>
+        <v>0.0393331009306764</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3710895849.126026</v>
+        <v>3200367422.77324</v>
       </c>
       <c r="F18" t="n">
-        <v>0.182548387308511</v>
+        <v>0.1727808366965586</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02946922021130811</v>
+        <v>0.02087767226038519</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1179421359.194139</v>
+        <v>1376547651.401336</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1755076683180128</v>
+        <v>0.1152227623229551</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02160519036845168</v>
+        <v>0.02355558019534996</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1781958271.322896</v>
+        <v>2180456134.08442</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1447310386985212</v>
+        <v>0.1044089879471736</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02447815323234486</v>
+        <v>0.02207793787464413</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2374324116.784986</v>
+        <v>2395968451.409216</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08711874573490237</v>
+        <v>0.07946666575147927</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02836561371063879</v>
+        <v>0.03552527078870586</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2584883185.289177</v>
+        <v>2574915757.456739</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0907679715475556</v>
+        <v>0.09425357133450214</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04524718342243125</v>
+        <v>0.03884948439538744</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1360901793.520146</v>
+        <v>1009599955.259005</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1298594613971978</v>
+        <v>0.1655948090294265</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05265053398156224</v>
+        <v>0.04177848577131069</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4067752543.129853</v>
+        <v>3113345517.987078</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1151939946628432</v>
+        <v>0.1002677491164782</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03451887827522097</v>
+        <v>0.02565816127804296</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>894013589.7259901</v>
+        <v>1228617393.26113</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09510085972388056</v>
+        <v>0.1183017297778025</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02455294027506818</v>
+        <v>0.02471647638692802</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1259785582.985991</v>
+        <v>1454241271.119297</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07540448211846636</v>
+        <v>0.0778877026602813</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03820113469962834</v>
+        <v>0.03772144942914647</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3387591025.323475</v>
+        <v>3772920469.152823</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1140792663912376</v>
+        <v>0.1464548507394711</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02489222048907534</v>
+        <v>0.01668969773163019</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2935720531.593068</v>
+        <v>2982833952.422405</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1510541391494553</v>
+        <v>0.1386946760401445</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04744339090430129</v>
+        <v>0.04601982823310655</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4542408364.683735</v>
+        <v>5164683078.361401</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1262134619409787</v>
+        <v>0.1050863877108524</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03217533791213352</v>
+        <v>0.02959938743435923</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2104205386.198922</v>
+        <v>2062534936.942544</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1008475037548954</v>
+        <v>0.1309474469102952</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02625809903049829</v>
+        <v>0.02633988431287247</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1095347029.45655</v>
+        <v>1127595521.941137</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08432438360448299</v>
+        <v>0.08100555819982555</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03933016404892789</v>
+        <v>0.04189594288430561</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1461153678.498518</v>
+        <v>1587654383.030178</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1200475262851251</v>
+        <v>0.08305820912554937</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03274796420206325</v>
+        <v>0.02474152532502798</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2661533278.443891</v>
+        <v>2004647713.979726</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1340453150512676</v>
+        <v>0.1950147331219672</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06121383729849825</v>
+        <v>0.05843843030296875</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1269686406.830944</v>
+        <v>1250171855.927518</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09622187697733195</v>
+        <v>0.07758019594488212</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01918846881634196</v>
+        <v>0.02712673492610896</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1183779931.454057</v>
+        <v>1296332437.351406</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1091484365199132</v>
+        <v>0.1040889082112084</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03228490715036843</v>
+        <v>0.040449404370312</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3191505623.623384</v>
+        <v>3142196450.179276</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1250011450015642</v>
+        <v>0.1373335320291827</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02688048226085849</v>
+        <v>0.02458991155218086</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1841590452.050086</v>
+        <v>2240747230.176798</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07752383077318342</v>
+        <v>0.108181758788986</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03324796434237193</v>
+        <v>0.03128967048912567</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1767541552.610547</v>
+        <v>2059454619.36771</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1005501108573436</v>
+        <v>0.09148661264450288</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03740027305658312</v>
+        <v>0.02700828098251513</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1381153639.223576</v>
+        <v>1380246853.411279</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1873121365362651</v>
+        <v>0.1426964711055487</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02679148300601177</v>
+        <v>0.03178220118025334</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1327281844.451571</v>
+        <v>1715960403.37396</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1599933784668912</v>
+        <v>0.1297532302802021</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04920542053734842</v>
+        <v>0.05169574440715434</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2400757326.879608</v>
+        <v>2021399128.020963</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1187542724679608</v>
+        <v>0.1564485861810291</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03941211502153381</v>
+        <v>0.04164083683535748</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4099163377.175808</v>
+        <v>3124679174.291923</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1006196709984659</v>
+        <v>0.0916634978238294</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04472916924868958</v>
+        <v>0.04058557069429801</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2980861971.548039</v>
+        <v>2226647742.558911</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1391872614424405</v>
+        <v>0.1480003928455607</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01977055740951765</v>
+        <v>0.02305077258099831</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1926944447.016662</v>
+        <v>2039001781.33106</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08323021756487745</v>
+        <v>0.0994708201770548</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02365328000451834</v>
+        <v>0.0300517594189407</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1567866204.568396</v>
+        <v>1970382909.85518</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1189930862732963</v>
+        <v>0.1242192314230791</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04719275832961919</v>
+        <v>0.05447387397395718</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4354157739.730542</v>
+        <v>3667502307.065349</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1298555058614822</v>
+        <v>0.1142429712850782</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04617914864638498</v>
+        <v>0.06095428708813215</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3888888339.049433</v>
+        <v>3122116087.638576</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1330171302963432</v>
+        <v>0.135374126634087</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04520597151539537</v>
+        <v>0.04632752017003006</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3753698216.629604</v>
+        <v>4614646633.416206</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09963389876277219</v>
+        <v>0.1091013805827549</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02396770812366853</v>
+        <v>0.02777290767167922</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1926320237.48552</v>
+        <v>1299739268.719201</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1619004119024549</v>
+        <v>0.1702212441356335</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02861671186171837</v>
+        <v>0.04153651646691438</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3964128175.513617</v>
+        <v>3982242871.253962</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1188372201921105</v>
+        <v>0.1517411284503142</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04762382677281899</v>
+        <v>0.05344653569993206</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1208891612.469882</v>
+        <v>939763516.5678759</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1877371016704922</v>
+        <v>0.1364633791960575</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0349323445101003</v>
+        <v>0.04937667098381965</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4979511130.089106</v>
+        <v>4196596544.393204</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09886246881395616</v>
+        <v>0.1028095110159598</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04333471439341325</v>
+        <v>0.03933193290597721</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3221955248.677681</v>
+        <v>3203817795.877895</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1372771319699124</v>
+        <v>0.1977210359304227</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02468845668649748</v>
+        <v>0.02452359029021352</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3857294152.48687</v>
+        <v>4725719054.794189</v>
       </c>
       <c r="F54" t="n">
-        <v>0.117399367175464</v>
+        <v>0.138945711383803</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03287019221724863</v>
+        <v>0.051317340509547</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4219585558.023179</v>
+        <v>4368684225.90859</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2203791834905794</v>
+        <v>0.1411553040729983</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0242205340117761</v>
+        <v>0.0264886870067783</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1164668159.925165</v>
+        <v>1609119414.173818</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1185401153100237</v>
+        <v>0.145886037242731</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04947093548221744</v>
+        <v>0.03680165355794771</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4099825510.237453</v>
+        <v>3526743570.2021</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1822262003323528</v>
+        <v>0.154775170103778</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02676984776673006</v>
+        <v>0.02104261339591635</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1485104185.958348</v>
+        <v>1806617153.31425</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1748827226724153</v>
+        <v>0.1710495076426983</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03688965743160956</v>
+        <v>0.02898409100977952</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3834349936.413664</v>
+        <v>4078478624.868459</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1202976329981699</v>
+        <v>0.1101455321612043</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04421274476340611</v>
+        <v>0.03698634895480547</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2910614772.66018</v>
+        <v>3683830313.147776</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1381162715044678</v>
+        <v>0.1857834011889774</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03267142661174274</v>
+        <v>0.02673749136345542</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2983851871.016278</v>
+        <v>2730724034.073812</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1476782572431525</v>
+        <v>0.1266113992440994</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0274013143684514</v>
+        <v>0.02553902419028313</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1705871444.518472</v>
+        <v>1458965186.739179</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1752808649371073</v>
+        <v>0.1223410186223245</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04655700587944191</v>
+        <v>0.0467965433665587</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4004370648.085252</v>
+        <v>4841180924.956598</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06981677463721488</v>
+        <v>0.06564406658311023</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04059272932323871</v>
+        <v>0.04109759093266648</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4387471042.156924</v>
+        <v>3431200336.877468</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1516156594100602</v>
+        <v>0.1208732055301294</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02433796704810432</v>
+        <v>0.02373056222705243</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4206662462.751066</v>
+        <v>5910930248.713098</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1052652619465316</v>
+        <v>0.1411363552212851</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02676480620638241</v>
+        <v>0.02739761985792466</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5457536273.790527</v>
+        <v>5363556196.7821</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1248959227182425</v>
+        <v>0.1052245156274881</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04307306436235871</v>
+        <v>0.04043205028113871</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2736416942.575049</v>
+        <v>2748095064.323674</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1020200223325559</v>
+        <v>0.07788743357059646</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04736011325977202</v>
+        <v>0.03218114240082802</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6028239154.976945</v>
+        <v>6010379199.299936</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1260301164392393</v>
+        <v>0.1528614224492288</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0472101778002678</v>
+        <v>0.03231822505337809</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1621697267.899539</v>
+        <v>2338033871.798891</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1270075558001713</v>
+        <v>0.153597786578824</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04008854173492631</v>
+        <v>0.04867064546395294</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3345764741.29623</v>
+        <v>3135119989.434988</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08822364820653275</v>
+        <v>0.08353347590883882</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03163490218710972</v>
+        <v>0.03140091193186976</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3837009986.946353</v>
+        <v>5553385790.551694</v>
       </c>
       <c r="F71" t="n">
-        <v>0.13852229834151</v>
+        <v>0.1667827078421649</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02769809795547959</v>
+        <v>0.02438952996579282</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1984657307.15608</v>
+        <v>2181712416.261209</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1053509810866507</v>
+        <v>0.08780479116559803</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05110094296936674</v>
+        <v>0.0531576434556288</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2725922192.168824</v>
+        <v>2327254071.258667</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104268384168574</v>
+        <v>0.07905135665015348</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04313954401661673</v>
+        <v>0.03726524590082781</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3632809808.921638</v>
+        <v>2755061009.259926</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1434509951317884</v>
+        <v>0.1223294075343655</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02465013459002539</v>
+        <v>0.02653109179189424</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1932336828.439223</v>
+        <v>1876705051.5621</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1458122972120159</v>
+        <v>0.1314386477005645</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02900658355799622</v>
+        <v>0.03455549790859521</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4540455446.005898</v>
+        <v>4042747590.254922</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1249427823996011</v>
+        <v>0.07705541686052293</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02632324288712333</v>
+        <v>0.03347987185467358</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2106315738.915568</v>
+        <v>1960585508.21743</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1188203563493156</v>
+        <v>0.1219764066823811</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02710337674217107</v>
+        <v>0.03006773046182249</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3344826255.816115</v>
+        <v>3093637168.929774</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1180398395787368</v>
+        <v>0.09075657514094797</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04137802658590693</v>
+        <v>0.03706696083924115</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1785437408.847523</v>
+        <v>1648762255.483637</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1718155866822713</v>
+        <v>0.1252857946592403</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02553780883268304</v>
+        <v>0.04051064037756881</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4719421778.372992</v>
+        <v>5302447943.062371</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1089636018116349</v>
+        <v>0.09837641740211585</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03637837986036445</v>
+        <v>0.03590207810265115</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4561473512.532747</v>
+        <v>3820589091.819121</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1066444264365991</v>
+        <v>0.1359720945335235</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02584453373441181</v>
+        <v>0.02033814372393469</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5211096324.823095</v>
+        <v>4155247659.138078</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1356579160911994</v>
+        <v>0.2081909914714043</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0181213070109753</v>
+        <v>0.0254965335556748</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1858799374.993485</v>
+        <v>2197105431.157977</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1003644476858866</v>
+        <v>0.1220892597481498</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03119575325319881</v>
+        <v>0.03291206208178586</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1880438974.748161</v>
+        <v>2335693637.630925</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09223720414889734</v>
+        <v>0.1086779172750622</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04630206536733069</v>
+        <v>0.04328795015261292</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3472021005.24698</v>
+        <v>3560212071.012596</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1750375261143814</v>
+        <v>0.1396565286997308</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05222353788161837</v>
+        <v>0.05000973356593568</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2356801857.375929</v>
+        <v>2788100331.799598</v>
       </c>
       <c r="F86" t="n">
-        <v>0.122919161492897</v>
+        <v>0.1704976212471614</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01725050334311914</v>
+        <v>0.0166294833400459</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1116299508.848449</v>
+        <v>1349430012.91992</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1205781308072473</v>
+        <v>0.1433461077339936</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03793986934994339</v>
+        <v>0.04095394888682943</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3173497676.73268</v>
+        <v>3730974298.549088</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1418671772021475</v>
+        <v>0.15489857061354</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03941151629899594</v>
+        <v>0.03297609285725965</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2509056539.054795</v>
+        <v>2954230096.099915</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1480612219773942</v>
+        <v>0.1149479547979007</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03770346272216223</v>
+        <v>0.03950644631401887</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2002764342.876734</v>
+        <v>1602009448.083822</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1226786468823805</v>
+        <v>0.1071001425453564</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03554445158255459</v>
+        <v>0.0449158424718106</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1562998674.267471</v>
+        <v>1678761032.401238</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1284217429471216</v>
+        <v>0.1311836069590766</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04173488292210982</v>
+        <v>0.04743146672127024</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2459325607.880857</v>
+        <v>2356213466.398993</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07641127709223437</v>
+        <v>0.09968896655504367</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04561505273707916</v>
+        <v>0.04503615066332598</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3409565821.918616</v>
+        <v>3837395596.122386</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1340581259931961</v>
+        <v>0.1244889495653396</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03972347787623449</v>
+        <v>0.03885741503007737</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2521192070.875357</v>
+        <v>2493217856.234159</v>
       </c>
       <c r="F94" t="n">
-        <v>0.141312341201702</v>
+        <v>0.1504259532627512</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02696054119775461</v>
+        <v>0.03815445676763887</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1996287027.535538</v>
+        <v>2479343249.193908</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08365487520413609</v>
+        <v>0.1039322417185097</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04490949646021025</v>
+        <v>0.04945691307878604</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1981770973.106937</v>
+        <v>1826810378.996382</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08560902902521907</v>
+        <v>0.1327983901591817</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04640957330162114</v>
+        <v>0.0389341797345923</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5119276514.638713</v>
+        <v>3674618545.757634</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1752490714284152</v>
+        <v>0.1200765268788291</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01773483784307158</v>
+        <v>0.02044823896022288</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3644631863.844076</v>
+        <v>2612820380.314697</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08376669174738845</v>
+        <v>0.08518709224318431</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03168465990000279</v>
+        <v>0.02780966884635657</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2240482397.47427</v>
+        <v>3046563152.144811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1239173249867729</v>
+        <v>0.09701963070519884</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02859353450786619</v>
+        <v>0.02803862857207201</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4133405341.573193</v>
+        <v>4344157185.04091</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1246080017152818</v>
+        <v>0.1211342199326831</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02552877558764513</v>
+        <v>0.02681175596262854</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3508226946.636349</v>
+        <v>2643938818.946845</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1559072165264842</v>
+        <v>0.2028649436789239</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03539139499790444</v>
+        <v>0.05266753183715992</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_70.xlsx
+++ b/output/fit_clients/fit_round_70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2116034247.866054</v>
+        <v>1702828710.761942</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09687792685966257</v>
+        <v>0.07174352624522934</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04145266063859337</v>
+        <v>0.04243500961992775</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2484436149.219905</v>
+        <v>2169978536.334275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1461798190292288</v>
+        <v>0.1416141079139197</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04570867091781637</v>
+        <v>0.03599414407323056</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4457322091.063692</v>
+        <v>3426930963.24382</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1276059913193132</v>
+        <v>0.1271265351981808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02608158654104241</v>
+        <v>0.028235346055127</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47</v>
+      </c>
+      <c r="J4" t="n">
+        <v>69</v>
+      </c>
+      <c r="K4" t="n">
+        <v>128.3529763674898</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3522972750.855654</v>
+        <v>3589837177.024124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1067940171664105</v>
+        <v>0.1010395126532641</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05073030562379302</v>
+        <v>0.04400289645580301</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>70</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2771210651.956114</v>
+        <v>2087568653.477724</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1299653182929839</v>
+        <v>0.1295327565476004</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04801944063484847</v>
+        <v>0.05393588633626444</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2057672267.199939</v>
+        <v>1947748924.1079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0863204337398172</v>
+        <v>0.06616466746911406</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04794852363843823</v>
+        <v>0.04777720835082105</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2904456297.894362</v>
+        <v>2714863171.956031</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2177658528875738</v>
+        <v>0.1966039180100467</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02728923415519618</v>
+        <v>0.02724572695386372</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1832314286.23871</v>
+        <v>1967327292.01796</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1654968416244219</v>
+        <v>0.1225167746835572</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02283837233153354</v>
+        <v>0.0336806327616786</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5003116283.149007</v>
+        <v>4533740480.394987</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1404290284233115</v>
+        <v>0.2027342987362071</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03491163929603795</v>
+        <v>0.05321711653992337</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>65</v>
+      </c>
+      <c r="J10" t="n">
+        <v>70</v>
+      </c>
+      <c r="K10" t="n">
+        <v>206.9294230972813</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2663857664.193207</v>
+        <v>3325693747.975416</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1243461827568602</v>
+        <v>0.1351154307735955</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03156596382428297</v>
+        <v>0.04239108351933207</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" t="n">
+        <v>69</v>
+      </c>
+      <c r="K11" t="n">
+        <v>132.6315771227632</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3127737829.954705</v>
+        <v>2124409804.604871</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1574186572025361</v>
+        <v>0.148420191766411</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0377340118502198</v>
+        <v>0.03475212324422167</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5281948865.071282</v>
+        <v>4796890358.00139</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07295638263138715</v>
+        <v>0.1014957362764173</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02349684044286071</v>
+        <v>0.02390301900663375</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>36</v>
+      </c>
+      <c r="J13" t="n">
+        <v>69</v>
+      </c>
+      <c r="K13" t="n">
+        <v>183.1422036670512</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2820308684.601986</v>
+        <v>3490395564.128591</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1415471544990596</v>
+        <v>0.1589298530432234</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03514126950722687</v>
+        <v>0.03888770082749773</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>69</v>
+      </c>
+      <c r="K14" t="n">
+        <v>127.5411914291195</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1547412936.109903</v>
+        <v>1585621841.680914</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07293321441066251</v>
+        <v>0.1015635304975128</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03045869332042084</v>
+        <v>0.04470387848122995</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2343984728.071215</v>
+        <v>1778836264.65103</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08948670091144748</v>
+        <v>0.085937410671294</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03451680499841375</v>
+        <v>0.03341628505934464</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3800562947.872481</v>
+        <v>4649565774.897719</v>
       </c>
       <c r="F17" t="n">
-        <v>0.129705837504866</v>
+        <v>0.1384760723524015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0393331009306764</v>
+        <v>0.03705412056500438</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>34</v>
+      </c>
+      <c r="J17" t="n">
+        <v>69</v>
+      </c>
+      <c r="K17" t="n">
+        <v>162.9526820277331</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3200367422.77324</v>
+        <v>3760691828.496339</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1727808366965586</v>
+        <v>0.1652216951636089</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02087767226038519</v>
+        <v>0.0327525837262584</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>70</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1376547651.401336</v>
+        <v>845103183.8118726</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1152227623229551</v>
+        <v>0.1738773040089325</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02355558019534996</v>
+        <v>0.02501659209538997</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2180456134.08442</v>
+        <v>2752645809.296775</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1044089879471736</v>
+        <v>0.1130078142360495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02207793787464413</v>
+        <v>0.02999604615635823</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2395968451.409216</v>
+        <v>1735518903.025399</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07946666575147927</v>
+        <v>0.08091786572327564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03552527078870586</v>
+        <v>0.04060041450962164</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2574915757.456739</v>
+        <v>3545537254.763121</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09425357133450214</v>
+        <v>0.1048784091277213</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03884948439538744</v>
+        <v>0.0377200969578986</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>70</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1009599955.259005</v>
+        <v>1064692393.859536</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1655948090294265</v>
+        <v>0.1792948808673994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04177848577131069</v>
+        <v>0.04386913264226596</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3113345517.987078</v>
+        <v>3467249785.783791</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1002677491164782</v>
+        <v>0.1148022319014721</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02565816127804296</v>
+        <v>0.03712709315826212</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>21</v>
+      </c>
+      <c r="J24" t="n">
+        <v>70</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1228617393.26113</v>
+        <v>1205814440.13724</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1183017297778025</v>
+        <v>0.11112202447722</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02471647638692802</v>
+        <v>0.02848336285015237</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1454241271.119297</v>
+        <v>1433310627.944724</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0778877026602813</v>
+        <v>0.09420408281219728</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03772144942914647</v>
+        <v>0.03389880948040036</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3772920469.152823</v>
+        <v>3189206122.474337</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1464548507394711</v>
+        <v>0.1085643821708334</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01668969773163019</v>
+        <v>0.02183169457243103</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27</v>
+      </c>
+      <c r="J27" t="n">
+        <v>66</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2982833952.422405</v>
+        <v>3256700279.981363</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1386946760401445</v>
+        <v>0.1270597003501907</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04601982823310655</v>
+        <v>0.04418411574382518</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>19</v>
+      </c>
+      <c r="J28" t="n">
+        <v>68</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5164683078.361401</v>
+        <v>4553691551.350732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1050863877108524</v>
+        <v>0.1176644394575621</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02959938743435923</v>
+        <v>0.04464400469700298</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>64</v>
+      </c>
+      <c r="J29" t="n">
+        <v>70</v>
+      </c>
+      <c r="K29" t="n">
+        <v>214.0086701009383</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2062534936.942544</v>
+        <v>2175121982.197857</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1309474469102952</v>
+        <v>0.08679919683920927</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02633988431287247</v>
+        <v>0.03588172765736171</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1127595521.941137</v>
+        <v>1089124312.113791</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08100555819982555</v>
+        <v>0.09762033972798269</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04189594288430561</v>
+        <v>0.04501755787210417</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1587654383.030178</v>
+        <v>1567048413.578799</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08305820912554937</v>
+        <v>0.08473555054289236</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02474152532502798</v>
+        <v>0.03576999894511591</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2004647713.979726</v>
+        <v>2106746979.475583</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1950147331219672</v>
+        <v>0.1378485219358221</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05843843030296875</v>
+        <v>0.05256906404989108</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1250171855.927518</v>
+        <v>1008945709.347466</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07758019594488212</v>
+        <v>0.1092028993492628</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02712673492610896</v>
+        <v>0.0179471820999765</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1296332437.351406</v>
+        <v>1027090548.374241</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1040889082112084</v>
+        <v>0.1169684297691071</v>
       </c>
       <c r="G35" t="n">
-        <v>0.040449404370312</v>
+        <v>0.03464267494942101</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3142196450.179276</v>
+        <v>2081194714.877631</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1373335320291827</v>
+        <v>0.1478542813021455</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02458991155218086</v>
+        <v>0.02831287509815136</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2240747230.176798</v>
+        <v>1909832505.251799</v>
       </c>
       <c r="F37" t="n">
-        <v>0.108181758788986</v>
+        <v>0.09821518373962999</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03128967048912567</v>
+        <v>0.03132512838022442</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2059454619.36771</v>
+        <v>1409354291.421387</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09148661264450288</v>
+        <v>0.08944794665388407</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02700828098251513</v>
+        <v>0.03975570145085187</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1380246853.411279</v>
+        <v>1882628214.753661</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1426964711055487</v>
+        <v>0.1641149433639269</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03178220118025334</v>
+        <v>0.02258653183369134</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1715960403.37396</v>
+        <v>1256699333.872099</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1297532302802021</v>
+        <v>0.1492101133531605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05169574440715434</v>
+        <v>0.0555615122729048</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2021399128.020963</v>
+        <v>2466207251.030562</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1564485861810291</v>
+        <v>0.1626114828140741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04164083683535748</v>
+        <v>0.04515779811700224</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3124679174.291923</v>
+        <v>3958476468.011794</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0916634978238294</v>
+        <v>0.09102552275894402</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04058557069429801</v>
+        <v>0.03817253611294011</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>26</v>
+      </c>
+      <c r="J42" t="n">
+        <v>70</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2226647742.558911</v>
+        <v>1901171038.942285</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1480003928455607</v>
+        <v>0.176914923677615</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02305077258099831</v>
+        <v>0.02426093244565291</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2039001781.33106</v>
+        <v>2044882547.268569</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0994708201770548</v>
+        <v>0.07474507901598257</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0300517594189407</v>
+        <v>0.02639075981295518</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1970382909.85518</v>
+        <v>1765355065.847225</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1242192314230791</v>
+        <v>0.1642203042866986</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05447387397395718</v>
+        <v>0.03816401664828597</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3667502307.065349</v>
+        <v>5338266938.239259</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1142429712850782</v>
+        <v>0.1488937473921713</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06095428708813215</v>
+        <v>0.05470505255665978</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>41</v>
+      </c>
+      <c r="J46" t="n">
+        <v>70</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3122116087.638576</v>
+        <v>3941109702.971579</v>
       </c>
       <c r="F47" t="n">
-        <v>0.135374126634087</v>
+        <v>0.1792486536042477</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04632752017003006</v>
+        <v>0.05246993791087733</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>31</v>
+      </c>
+      <c r="J47" t="n">
+        <v>69</v>
+      </c>
+      <c r="K47" t="n">
+        <v>140.5713464752824</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4614646633.416206</v>
+        <v>3753205853.67123</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1091013805827549</v>
+        <v>0.1090431823252225</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02777290767167922</v>
+        <v>0.02476707936232701</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>70</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1299739268.719201</v>
+        <v>1511513528.622655</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1702212441356335</v>
+        <v>0.1640626180540762</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04153651646691438</v>
+        <v>0.02747622642890444</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3982242871.253962</v>
+        <v>3069521854.478804</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1517411284503142</v>
+        <v>0.1674693059022962</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05344653569993206</v>
+        <v>0.04073793008323687</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26</v>
+      </c>
+      <c r="J50" t="n">
+        <v>69</v>
+      </c>
+      <c r="K50" t="n">
+        <v>101.2943236726492</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>939763516.5678759</v>
+        <v>1376415015.035945</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1364633791960575</v>
+        <v>0.1648505863208182</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04937667098381965</v>
+        <v>0.05107136334919048</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4196596544.393204</v>
+        <v>3586766680.149769</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1028095110159598</v>
+        <v>0.1267380200771819</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03933193290597721</v>
+        <v>0.04552708539691749</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>56</v>
+      </c>
+      <c r="J52" t="n">
+        <v>69</v>
+      </c>
+      <c r="K52" t="n">
+        <v>146.4730529980526</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3203817795.877895</v>
+        <v>2496528961.878529</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1977210359304227</v>
+        <v>0.1361468179630032</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02452359029021352</v>
+        <v>0.03126337340416052</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4725719054.794189</v>
+        <v>4122749532.108107</v>
       </c>
       <c r="F54" t="n">
-        <v>0.138945711383803</v>
+        <v>0.1384014717819057</v>
       </c>
       <c r="G54" t="n">
-        <v>0.051317340509547</v>
+        <v>0.04139716877604947</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>31</v>
+      </c>
+      <c r="J54" t="n">
+        <v>69</v>
+      </c>
+      <c r="K54" t="n">
+        <v>181.6509338974788</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4368684225.90859</v>
+        <v>4234154052.172631</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1411553040729983</v>
+        <v>0.2187430211098643</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0264886870067783</v>
+        <v>0.02302114245906815</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>32</v>
+      </c>
+      <c r="J55" t="n">
+        <v>70</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1609119414.173818</v>
+        <v>1505791753.806543</v>
       </c>
       <c r="F56" t="n">
-        <v>0.145886037242731</v>
+        <v>0.1371986218787361</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03680165355794771</v>
+        <v>0.03588711241624323</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3526743570.2021</v>
+        <v>3430393168.040586</v>
       </c>
       <c r="F57" t="n">
-        <v>0.154775170103778</v>
+        <v>0.141805360280096</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02104261339591635</v>
+        <v>0.02020994006425152</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>70</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1806617153.31425</v>
+        <v>1507611848.346928</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1710495076426983</v>
+        <v>0.1567993822346442</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02898409100977952</v>
+        <v>0.03619066712325113</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4078478624.868459</v>
+        <v>3351345973.2186</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1101455321612043</v>
+        <v>0.1035549519741892</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03698634895480547</v>
+        <v>0.04042543422275627</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>34</v>
+      </c>
+      <c r="J59" t="n">
+        <v>69</v>
+      </c>
+      <c r="K59" t="n">
+        <v>107.4413567874038</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3683830313.147776</v>
+        <v>2301093878.678758</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1857834011889774</v>
+        <v>0.1320894773886226</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02673749136345542</v>
+        <v>0.02936048622785488</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2730724034.073812</v>
+        <v>2051450625.58935</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1266113992440994</v>
+        <v>0.1683656374467445</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02553902419028313</v>
+        <v>0.03130650530536935</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1458965186.739179</v>
+        <v>1727909955.84957</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1223410186223245</v>
+        <v>0.1289918205639432</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0467965433665587</v>
+        <v>0.04828446354661444</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4841180924.956598</v>
+        <v>5155862908.317084</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06564406658311023</v>
+        <v>0.09536821411978753</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04109759093266648</v>
+        <v>0.03752215808604601</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>34</v>
+      </c>
+      <c r="J63" t="n">
+        <v>70</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3431200336.877468</v>
+        <v>3940886387.27193</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1208732055301294</v>
+        <v>0.121097997583357</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02373056222705243</v>
+        <v>0.03414267703533654</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>34</v>
+      </c>
+      <c r="J64" t="n">
+        <v>70</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5910930248.713098</v>
+        <v>5046438200.914258</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1411363552212851</v>
+        <v>0.1189437936140405</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02739761985792466</v>
+        <v>0.0292027682894484</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>55</v>
+      </c>
+      <c r="J65" t="n">
+        <v>70</v>
+      </c>
+      <c r="K65" t="n">
+        <v>187.4521322740605</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5363556196.7821</v>
+        <v>4601297414.62525</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1052245156274881</v>
+        <v>0.1338655968960789</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04043205028113871</v>
+        <v>0.03607007460756931</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>34</v>
+      </c>
+      <c r="J66" t="n">
+        <v>70</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2748095064.323674</v>
+        <v>2263597512.990046</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07788743357059646</v>
+        <v>0.08436980221303608</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03218114240082802</v>
+        <v>0.04330076617747777</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6010379199.299936</v>
+        <v>4588877730.499952</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1528614224492288</v>
+        <v>0.1168681912529015</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03231822505337809</v>
+        <v>0.03143240454220677</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>35</v>
+      </c>
+      <c r="J68" t="n">
+        <v>69</v>
+      </c>
+      <c r="K68" t="n">
+        <v>173.3448724402627</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2338033871.798891</v>
+        <v>1797839021.034286</v>
       </c>
       <c r="F69" t="n">
-        <v>0.153597786578824</v>
+        <v>0.1829522529548438</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04867064546395294</v>
+        <v>0.04984774902765998</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3135119989.434988</v>
+        <v>3323323553.461913</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08353347590883882</v>
+        <v>0.1001018841211206</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03140091193186976</v>
+        <v>0.04264060711139242</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5553385790.551694</v>
+        <v>4372509609.18053</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1667827078421649</v>
+        <v>0.1431061999905741</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02438952996579282</v>
+        <v>0.03185762314351521</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>57</v>
+      </c>
+      <c r="J71" t="n">
+        <v>70</v>
+      </c>
+      <c r="K71" t="n">
+        <v>188.8431876360782</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2181712416.261209</v>
+        <v>2203916166.606766</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08780479116559803</v>
+        <v>0.1031498102790283</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0531576434556288</v>
+        <v>0.04194288075134316</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2327254071.258667</v>
+        <v>3393545089.161172</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07905135665015348</v>
+        <v>0.08478528995632861</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03726524590082781</v>
+        <v>0.03842277921758021</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>68</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2755061009.259926</v>
+        <v>3438270367.339479</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1223294075343655</v>
+        <v>0.1547606255219022</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02653109179189424</v>
+        <v>0.02827897682581948</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>69</v>
+      </c>
+      <c r="K74" t="n">
+        <v>128.5812677171777</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1876705051.5621</v>
+        <v>1671183377.508486</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1314386477005645</v>
+        <v>0.1106927840633089</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03455549790859521</v>
+        <v>0.02795475628522672</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4042747590.254922</v>
+        <v>3266721687.407627</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07705541686052293</v>
+        <v>0.08669806646067461</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03347987185467358</v>
+        <v>0.03057230055790894</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>32</v>
+      </c>
+      <c r="J76" t="n">
+        <v>69</v>
+      </c>
+      <c r="K76" t="n">
+        <v>94.24031737601656</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1960585508.21743</v>
+        <v>1425320760.009959</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1219764066823811</v>
+        <v>0.1552239758723566</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03006773046182249</v>
+        <v>0.02666087534648714</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3093637168.929774</v>
+        <v>4600459414.975181</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09075657514094797</v>
+        <v>0.1252374611656246</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03706696083924115</v>
+        <v>0.05519846927674892</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>70</v>
+      </c>
+      <c r="K78" t="n">
+        <v>190.6859590048076</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1648762255.483637</v>
+        <v>1677641757.787993</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1252857946592403</v>
+        <v>0.1208514559638173</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04051064037756881</v>
+        <v>0.02595708183874449</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5302447943.062371</v>
+        <v>4584827961.901008</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09837641740211585</v>
+        <v>0.1098004752123408</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03590207810265115</v>
+        <v>0.03250928585160353</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>34</v>
+      </c>
+      <c r="J80" t="n">
+        <v>69</v>
+      </c>
+      <c r="K80" t="n">
+        <v>143.800978154082</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3820589091.819121</v>
+        <v>4299162274.031478</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1359720945335235</v>
+        <v>0.1159276431285482</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02033814372393469</v>
+        <v>0.0247756598177259</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>31</v>
+      </c>
+      <c r="J81" t="n">
+        <v>70</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4155247659.138078</v>
+        <v>3828186660.489487</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2081909914714043</v>
+        <v>0.1503436863893453</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0254965335556748</v>
+        <v>0.02687731532045895</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>42</v>
+      </c>
+      <c r="J82" t="n">
+        <v>70</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2197105431.157977</v>
+        <v>1642640277.977909</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1220892597481498</v>
+        <v>0.1101121199765189</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03291206208178586</v>
+        <v>0.03083104260295404</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2335693637.630925</v>
+        <v>2007192283.454025</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1086779172750622</v>
+        <v>0.09015242481150536</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04328795015261292</v>
+        <v>0.03283515014671367</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3560212071.012596</v>
+        <v>2769294726.641868</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1396565286997308</v>
+        <v>0.1609935130566993</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05000973356593568</v>
+        <v>0.03914186387670881</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2788100331.799598</v>
+        <v>2275417985.587906</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1704976212471614</v>
+        <v>0.121262610768705</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0166294833400459</v>
+        <v>0.0213519713614982</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1349430012.91992</v>
+        <v>1387465275.824229</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1433461077339936</v>
+        <v>0.1601622750345613</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04095394888682943</v>
+        <v>0.03435130753018678</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3730974298.549088</v>
+        <v>3183830950.246526</v>
       </c>
       <c r="F88" t="n">
-        <v>0.15489857061354</v>
+        <v>0.1531175433993529</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03297609285725965</v>
+        <v>0.02651256274436653</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2954230096.099915</v>
+        <v>2739731342.104</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1149479547979007</v>
+        <v>0.1431250286341762</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03950644631401887</v>
+        <v>0.03076811001726927</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1602009448.083822</v>
+        <v>1544860261.341073</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1071001425453564</v>
+        <v>0.09553817506275027</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0449158424718106</v>
+        <v>0.05566433265959481</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1678761032.401238</v>
+        <v>1641661106.684209</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1311836069590766</v>
+        <v>0.1359725003484277</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04743146672127024</v>
+        <v>0.05274090454875755</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2356213466.398993</v>
+        <v>2844884236.53296</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09968896655504367</v>
+        <v>0.1070694423261636</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04503615066332598</v>
+        <v>0.04610926714898157</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3837395596.122386</v>
+        <v>3792285842.664879</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1244889495653396</v>
+        <v>0.10107301493588</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03885741503007737</v>
+        <v>0.05032838109941275</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>31</v>
+      </c>
+      <c r="J93" t="n">
+        <v>70</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2493217856.234159</v>
+        <v>2034338603.310414</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1504259532627512</v>
+        <v>0.1330565655104764</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03815445676763887</v>
+        <v>0.03490818166587475</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2479343249.193908</v>
+        <v>2044881640.519573</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1039322417185097</v>
+        <v>0.107759610271267</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04945691307878604</v>
+        <v>0.05017134099101842</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1826810378.996382</v>
+        <v>1706135356.32985</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1327983901591817</v>
+        <v>0.09347989552045967</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0389341797345923</v>
+        <v>0.03258736361943444</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3674618545.757634</v>
+        <v>5058865161.061117</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1200765268788291</v>
+        <v>0.1411233533103563</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02044823896022288</v>
+        <v>0.02789753151112463</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>34</v>
+      </c>
+      <c r="J97" t="n">
+        <v>69</v>
+      </c>
+      <c r="K97" t="n">
+        <v>178.1453767633894</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2612820380.314697</v>
+        <v>3074799533.818525</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08518709224318431</v>
+        <v>0.1145704817689255</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02780966884635657</v>
+        <v>0.02537710031583572</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3046563152.144811</v>
+        <v>2852176581.843852</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09701963070519884</v>
+        <v>0.1247106024344332</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02803862857207201</v>
+        <v>0.02203258985938227</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4344157185.04091</v>
+        <v>2943214618.247402</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1211342199326831</v>
+        <v>0.1689839348399568</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02681175596262854</v>
+        <v>0.02085537440841752</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>29</v>
+      </c>
+      <c r="J100" t="n">
+        <v>68</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2643938818.946845</v>
+        <v>2940512138.186655</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2028649436789239</v>
+        <v>0.1401607678897042</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05266753183715992</v>
+        <v>0.03746750610332059</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
